--- a/old_doc/08.ログイン用アカウント情報.xlsx
+++ b/old_doc/08.ログイン用アカウント情報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A204D60-C398-4A04-BD8E-7CB3870D778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC082601-AC18-454C-B8AC-00CC0BFBA895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
-    <t>上司次郎</t>
-  </si>
-  <si>
     <t>田中太郎</t>
   </si>
   <si>
@@ -306,6 +303,10 @@
     <rPh sb="2" eb="4">
       <t>ケンゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上司次郎</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,26 +711,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2772F12B-6AF1-4F35-8B1B-EB1FCC6A5932}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -738,424 +740,424 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1001</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1001</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1001</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1001</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1001</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1002</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1002</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1002</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>1002</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>1002</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>1003</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1003</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>1003</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1003</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>1003</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>1004</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>1004</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1004</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>1004</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1169,96 +1171,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA1E033-DEB2-4407-B59A-943E5C8E6E0B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/old_doc/08.ログイン用アカウント情報.xlsx
+++ b/old_doc/08.ログイン用アカウント情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC082601-AC18-454C-B8AC-00CC0BFBA895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED8269-0F65-465C-93E8-69A3348C0007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>田中太郎</t>
   </si>
@@ -307,6 +307,49 @@
   </si>
   <si>
     <t>上司次郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k1002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k1003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k1004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者情報</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者番号の頭に「k」を付ける</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,13 +755,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2772F12B-6AF1-4F35-8B1B-EB1FCC6A5932}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -726,6 +776,17 @@
       </c>
       <c r="C1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>44988</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +801,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1172,7 +1233,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1199,8 +1260,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1000</v>
+      <c r="A2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1213,8 +1274,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>1001</v>
+      <c r="A3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1227,8 +1288,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>1002</v>
+      <c r="A4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1238,8 +1299,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>1003</v>
+      <c r="A5" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1249,8 +1310,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>1004</v>
+      <c r="A6" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
